--- a/data/trans_orig/IP22C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0012B45D-A329-4C8F-BD7C-E5FF0B762838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE14B8AA-7FFF-4140-9F77-8574111021CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8DEF2CBB-9C9F-4EAC-9415-6F25AF34CC49}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{760270A6-28AA-445B-AC42-D2BB6930842F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,6 +71,66 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Se lo mandó el médico</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>Usted sus familiares u otras personas lo consideraron necesa</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
     <t>Otros</t>
   </si>
   <si>
@@ -89,72 +149,132 @@
     <t>1,06%</t>
   </si>
   <si>
-    <t>Se lo mandó el médico</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>Usted sus familiares u otras personas lo consideraron necesa</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
     <t>3,13%</t>
   </si>
   <si>
@@ -164,124 +284,58 @@
     <t>3,61%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
   </si>
   <si>
     <t>0,9%</t>
@@ -305,63 +359,57 @@
     <t>2,07%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
     <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
   </si>
   <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
     <t>1,79%</t>
   </si>
   <si>
@@ -371,52 +419,115 @@
     <t>0,91%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>2,18%</t>
@@ -428,115 +539,58 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>0,67%</t>
@@ -548,63 +602,57 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
     <t>Menores según del porqué se decidió ir al servicio de urgencias en 2015 (Tasa respuesta: 15,95%)</t>
   </si>
   <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
     <t>15,2%</t>
   </si>
   <si>
@@ -626,52 +674,121 @@
     <t>10,75%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>2,05%</t>
@@ -686,121 +803,58 @@
     <t>4,93%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>2,19%</t>
@@ -821,63 +875,57 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
     <t>Menores según del porqué se decidió ir al servicio de urgencias en 2023 (Tasa respuesta: 14,37%)</t>
   </si>
   <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
     <t>3,52%</t>
   </si>
   <si>
@@ -893,52 +941,109 @@
     <t>10,58%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -947,109 +1052,55 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>1,59%</t>
@@ -1068,57 +1119,6 @@
   </si>
   <si>
     <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C2F90C-5308-4A06-A29C-21B075C842A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C41193-C1E8-4C6C-BB55-6DE2FA63E61D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1628,10 +1628,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>3871</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1643,133 +1643,133 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3847</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7">
         <v>12</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>7718</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D5" s="7">
-        <v>3871</v>
+        <v>57305</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="I5" s="7">
-        <v>3847</v>
+        <v>52551</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="N5" s="7">
-        <v>7718</v>
+        <v>109855</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>57305</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>52551</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="M6" s="7">
-        <v>168</v>
-      </c>
-      <c r="N6" s="7">
-        <v>109855</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>35</v>
@@ -1834,151 +1834,151 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>1358</v>
+        <v>1971</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>1358</v>
+        <v>3196</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D9" s="7">
-        <v>2644</v>
+        <v>43903</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>1195</v>
+        <v>32868</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="N9" s="7">
-        <v>3839</v>
+        <v>76770</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>778</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>778</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="D10" s="7">
-        <v>39338</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7">
-        <v>50</v>
-      </c>
-      <c r="I10" s="7">
-        <v>33731</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="7">
-        <v>109</v>
-      </c>
-      <c r="N10" s="7">
-        <v>73068</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,10 +1987,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D11" s="7">
-        <v>43340</v>
+        <v>45874</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2005,7 +2005,7 @@
         <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>34926</v>
+        <v>34872</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2017,10 +2017,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N11" s="7">
-        <v>78266</v>
+        <v>80745</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2034,157 +2034,157 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>2644</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>778</v>
+        <v>1195</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>778</v>
+        <v>3839</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7">
-        <v>1971</v>
+        <v>39338</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>1225</v>
+        <v>33731</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="N13" s="7">
-        <v>3196</v>
+        <v>73068</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>43903</v>
+        <v>1358</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>32868</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>76770</v>
+        <v>1358</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,10 +2193,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D15" s="7">
-        <v>45874</v>
+        <v>43340</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -2211,7 +2211,7 @@
         <v>52</v>
       </c>
       <c r="I15" s="7">
-        <v>34872</v>
+        <v>34926</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2223,10 +2223,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N15" s="7">
-        <v>80745</v>
+        <v>78266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -2246,142 +2246,142 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>1358</v>
+        <v>8486</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>778</v>
+        <v>6268</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="N16" s="7">
-        <v>2137</v>
+        <v>14754</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="D17" s="7">
-        <v>8486</v>
+        <v>140545</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="I17" s="7">
-        <v>6268</v>
+        <v>119149</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
-        <v>23</v>
+        <v>392</v>
       </c>
       <c r="N17" s="7">
-        <v>14754</v>
+        <v>259694</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>210</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>140545</v>
+        <v>1358</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H18" s="7">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>119149</v>
+        <v>778</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>102</v>
       </c>
       <c r="M18" s="7">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="N18" s="7">
-        <v>259694</v>
+        <v>2137</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>103</v>
@@ -2460,7 +2460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7978F5-5C90-4522-83EF-2907DB19BEF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701C6E95-95C4-4ED4-BF63-6896724BA15B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2578,97 +2578,97 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>7870</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>5889</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="7">
+        <v>20</v>
+      </c>
+      <c r="N4" s="7">
+        <v>13759</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D5" s="7">
-        <v>7870</v>
+        <v>66410</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="I5" s="7">
-        <v>5889</v>
+        <v>64481</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="N5" s="7">
-        <v>13759</v>
+        <v>130891</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>117</v>
@@ -2677,52 +2677,52 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>66410</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H6" s="7">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>64481</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M6" s="7">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>130891</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,151 +2784,151 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>4831</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>2132</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>6963</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D9" s="7">
-        <v>2505</v>
+        <v>63584</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="I9" s="7">
-        <v>1218</v>
+        <v>54470</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M9" s="7">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="N9" s="7">
-        <v>3723</v>
+        <v>118053</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>57326</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>26713</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>84039</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,10 +2937,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D11" s="7">
-        <v>59831</v>
+        <v>68415</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2952,10 +2952,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="I11" s="7">
-        <v>27931</v>
+        <v>56602</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2967,10 +2967,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="N11" s="7">
-        <v>87762</v>
+        <v>125016</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2984,154 +2984,154 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>2505</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>1218</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>3723</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D13" s="7">
-        <v>4831</v>
+        <v>57326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>2132</v>
+        <v>26713</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="N13" s="7">
-        <v>6963</v>
+        <v>84039</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>63584</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>54470</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M14" s="7">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>118053</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>165</v>
@@ -3143,10 +3143,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D15" s="7">
-        <v>68415</v>
+        <v>59831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -3158,10 +3158,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="I15" s="7">
-        <v>56602</v>
+        <v>27931</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -3173,10 +3173,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="N15" s="7">
-        <v>125016</v>
+        <v>87762</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -3196,148 +3196,148 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>15206</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>9239</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>24445</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>264</v>
       </c>
       <c r="D17" s="7">
-        <v>15206</v>
+        <v>187320</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H17" s="7">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="I17" s="7">
-        <v>9239</v>
+        <v>145664</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7">
-        <v>36</v>
+        <v>476</v>
       </c>
       <c r="N17" s="7">
-        <v>24445</v>
+        <v>332984</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>187320</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H18" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>145664</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M18" s="7">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>332984</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>186</v>
@@ -3410,7 +3410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39605AAD-72CE-40CE-894B-C3F78C60DB3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C4FEEA-A0BE-49C9-BBE9-C8F10AE743C4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3528,151 +3528,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5008</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
-        <v>1743</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
       <c r="I4" s="7">
-        <v>3016</v>
+        <v>1331</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>4759</v>
+        <v>6339</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7">
-        <v>5008</v>
+        <v>35524</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="I5" s="7">
-        <v>1331</v>
+        <v>42085</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="N5" s="7">
-        <v>6339</v>
+        <v>77608</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>35524</v>
+        <v>1743</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3016</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H6" s="7">
-        <v>67</v>
-      </c>
-      <c r="I6" s="7">
-        <v>42085</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>7</v>
+      </c>
+      <c r="N6" s="7">
+        <v>4759</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="M6" s="7">
-        <v>121</v>
-      </c>
-      <c r="N6" s="7">
-        <v>77608</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,151 +3734,151 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>2053</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>644</v>
+        <v>1934</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>644</v>
+        <v>3987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D9" s="7">
-        <v>4335</v>
+        <v>24577</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H9" s="7">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="I9" s="7">
-        <v>3266</v>
+        <v>35524</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M9" s="7">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="N9" s="7">
-        <v>7601</v>
+        <v>60101</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>36793</v>
+        <v>678</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>27579</v>
+        <v>589</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>64372</v>
+        <v>1267</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>232</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,10 +3887,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7">
-        <v>41128</v>
+        <v>27308</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -3902,10 +3902,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I11" s="7">
-        <v>31489</v>
+        <v>38047</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3920,7 +3920,7 @@
         <v>101</v>
       </c>
       <c r="N11" s="7">
-        <v>72617</v>
+        <v>65355</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -3934,154 +3934,154 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>678</v>
+        <v>4335</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>234</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>589</v>
+        <v>3266</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>235</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M12" s="7">
         <v>11</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="M12" s="7">
-        <v>2</v>
-      </c>
       <c r="N12" s="7">
-        <v>1267</v>
+        <v>7601</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>2053</v>
+        <v>36793</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>1934</v>
+        <v>27579</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="N13" s="7">
-        <v>3987</v>
+        <v>64372</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>24577</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>247</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>35524</v>
+        <v>644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M14" s="7">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>60101</v>
+        <v>644</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>253</v>
@@ -4093,10 +4093,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D15" s="7">
-        <v>27308</v>
+        <v>41128</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -4108,10 +4108,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>38047</v>
+        <v>31489</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4126,7 +4126,7 @@
         <v>101</v>
       </c>
       <c r="N15" s="7">
-        <v>65355</v>
+        <v>72617</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -4146,151 +4146,151 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>2421</v>
+        <v>11395</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>4250</v>
+        <v>6531</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N16" s="7">
-        <v>6671</v>
+        <v>17927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="D17" s="7">
-        <v>11395</v>
+        <v>96894</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="I17" s="7">
-        <v>6531</v>
+        <v>105187</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="N17" s="7">
-        <v>17927</v>
+        <v>202081</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>96894</v>
+        <v>2421</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H18" s="7">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>105187</v>
+        <v>4250</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M18" s="7">
-        <v>303</v>
+        <v>10</v>
       </c>
       <c r="N18" s="7">
-        <v>202081</v>
+        <v>6671</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,7 +4360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAAC044-0D4E-40B1-889B-F5BAE57D82CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2385FD71-3863-46DB-A64E-9FA546D73CB4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4478,148 +4478,148 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>696</v>
+        <v>797</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>279</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>280</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>491</v>
+        <v>1320</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>59</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>1187</v>
+        <v>2117</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>797</v>
+        <v>18259</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I5" s="7">
-        <v>1320</v>
+        <v>16116</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="N5" s="7">
-        <v>2117</v>
+        <v>34375</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>18259</v>
+        <v>696</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>292</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H6" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>16116</v>
+        <v>491</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>294</v>
+        <v>55</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M6" s="7">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>34375</v>
+        <v>1187</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>299</v>
@@ -4684,151 +4684,151 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1667</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>3571</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>5238</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7">
-        <v>5310</v>
+        <v>30416</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I9" s="7">
-        <v>1237</v>
+        <v>23819</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>311</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>312</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="M9" s="7">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="N9" s="7">
-        <v>6547</v>
+        <v>54235</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>45831</v>
+        <v>957</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>102</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>43982</v>
+        <v>833</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>89813</v>
+        <v>1789</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,10 +4837,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7">
-        <v>51141</v>
+        <v>33039</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -4852,10 +4852,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>45219</v>
+        <v>28223</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4867,10 +4867,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="N11" s="7">
-        <v>96360</v>
+        <v>61262</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -4884,154 +4884,154 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>957</v>
+        <v>5310</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>84</v>
+        <v>321</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>833</v>
+        <v>1237</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>317</v>
+        <v>55</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>1789</v>
+        <v>6547</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>1667</v>
+        <v>45831</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>329</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="I13" s="7">
-        <v>3571</v>
+        <v>43982</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="N13" s="7">
-        <v>5238</v>
+        <v>89813</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>30416</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="7">
-        <v>23819</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>54235</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>336</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D15" s="7">
-        <v>33039</v>
+        <v>51141</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -5058,10 +5058,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="I15" s="7">
-        <v>28223</v>
+        <v>45219</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -5073,10 +5073,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="N15" s="7">
-        <v>61262</v>
+        <v>96360</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -5096,145 +5096,145 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>1653</v>
+        <v>7774</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>1324</v>
+        <v>6128</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N16" s="7">
-        <v>2976</v>
+        <v>13902</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="D17" s="7">
-        <v>7774</v>
+        <v>94505</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="I17" s="7">
-        <v>6128</v>
+        <v>83917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="N17" s="7">
-        <v>13902</v>
+        <v>178423</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>94505</v>
+        <v>1653</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>332</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H18" s="7">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>83917</v>
+        <v>1324</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>355</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M18" s="7">
-        <v>252</v>
+        <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>178423</v>
+        <v>2976</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>357</v>
+        <v>44</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>358</v>

--- a/data/trans_orig/IP22C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE14B8AA-7FFF-4140-9F77-8574111021CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17BC75A4-2AA5-4CAA-A8CB-3651EEAC37F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{760270A6-28AA-445B-AC42-D2BB6930842F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70D2B243-3BE8-4D67-904D-4FD08BEB4FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="417">
   <si>
     <t>Menores según del porqué se decidió ir al servicio de urgencias en 2007 (Tasa respuesta: 19,87%)</t>
   </si>
@@ -68,1057 +68,1228 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>Usted sus familiares u otras personas lo consideraron necesa</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>Se lo mandó el médico</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>Usted sus familiares u otras personas lo consideraron necesa</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2015 (Tasa respuesta: 15,95%)</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2023 (Tasa respuesta: 14,37%)</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
+    <t>0,43%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2015 (Tasa respuesta: 15,95%)</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2023 (Tasa respuesta: 14,37%)</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>12,65%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1300,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1225,39 +1396,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1309,7 +1480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1420,13 +1591,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1435,6 +1599,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1499,19 +1670,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C41193-C1E8-4C6C-BB55-6DE2FA63E61D}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13395139-91E0-41C4-9079-4AE8816BA5FA}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1628,10 +1819,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3871</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1643,133 +1834,133 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>3847</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>12</v>
-      </c>
-      <c r="N4" s="7">
-        <v>7718</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43</v>
+      </c>
+      <c r="D5" s="7">
+        <v>28910</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>47</v>
+      </c>
+      <c r="I5" s="7">
+        <v>29780</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>85</v>
-      </c>
-      <c r="D5" s="7">
-        <v>57305</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>90</v>
+      </c>
+      <c r="N5" s="7">
+        <v>58690</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>83</v>
-      </c>
-      <c r="I5" s="7">
-        <v>52551</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>168</v>
-      </c>
-      <c r="N5" s="7">
-        <v>109855</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3199</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1876</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>8</v>
+      </c>
+      <c r="N6" s="7">
+        <v>5075</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>35</v>
@@ -1781,10 +1972,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7">
-        <v>61176</v>
+        <v>32109</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -1796,10 +1987,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="I7" s="7">
-        <v>56398</v>
+        <v>31656</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -1811,10 +2002,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="N7" s="7">
-        <v>117573</v>
+        <v>63765</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1834,151 +2025,151 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1971</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>778</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1225</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>778</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="M8" s="7">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3196</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D9" s="7">
-        <v>43903</v>
+        <v>64308</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="7">
+        <v>71</v>
+      </c>
+      <c r="I9" s="7">
+        <v>46503</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="7">
+      <c r="M9" s="7">
+        <v>167</v>
+      </c>
+      <c r="N9" s="7">
+        <v>110811</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="7">
-        <v>32868</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="M9" s="7">
-        <v>115</v>
-      </c>
-      <c r="N9" s="7">
-        <v>76770</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2620</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>778</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>57</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>778</v>
+        <v>4590</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,10 +2178,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D11" s="7">
-        <v>45874</v>
+        <v>66278</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2002,10 +2193,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I11" s="7">
-        <v>34872</v>
+        <v>49902</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2017,10 +2208,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="N11" s="7">
-        <v>80745</v>
+        <v>116180</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2034,157 +2225,157 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>2644</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1195</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="7">
-        <v>6</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3839</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>39338</v>
+        <v>18065</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="7">
+        <v>28</v>
+      </c>
+      <c r="I13" s="7">
+        <v>18573</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="7">
+        <v>55</v>
+      </c>
+      <c r="N13" s="7">
+        <v>36639</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="7">
-        <v>50</v>
-      </c>
-      <c r="I13" s="7">
-        <v>33731</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="7">
-        <v>109</v>
-      </c>
-      <c r="N13" s="7">
-        <v>73068</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1358</v>
+        <v>673</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>1358</v>
+        <v>1249</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,10 +2384,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7">
-        <v>43340</v>
+        <v>18738</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -2208,10 +2399,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I15" s="7">
-        <v>34926</v>
+        <v>19149</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2223,10 +2414,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="N15" s="7">
-        <v>78266</v>
+        <v>37888</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -2240,157 +2431,157 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>8486</v>
+        <v>1358</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>6268</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>14754</v>
+        <v>1358</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="D17" s="7">
-        <v>140545</v>
+        <v>29263</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="I17" s="7">
-        <v>119149</v>
+        <v>24292</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="N17" s="7">
-        <v>259694</v>
+        <v>53554</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2644</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
-        <v>1358</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
       <c r="I18" s="7">
-        <v>778</v>
+        <v>1195</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>2137</v>
+        <v>3839</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,55 +2590,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>50</v>
+      </c>
+      <c r="D19" s="7">
+        <v>33265</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>38</v>
+      </c>
+      <c r="I19" s="7">
+        <v>25487</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>88</v>
+      </c>
+      <c r="N19" s="7">
+        <v>58752</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1358</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>778</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="7">
+        <v>3</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2137</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>210</v>
+      </c>
+      <c r="D21" s="7">
+        <v>140545</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="7">
+        <v>182</v>
+      </c>
+      <c r="I21" s="7">
+        <v>119149</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M21" s="7">
+        <v>392</v>
+      </c>
+      <c r="N21" s="7">
+        <v>259694</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>13</v>
+      </c>
+      <c r="D22" s="7">
+        <v>8486</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="7">
+        <v>10</v>
+      </c>
+      <c r="I22" s="7">
+        <v>6268</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="7">
+        <v>23</v>
+      </c>
+      <c r="N22" s="7">
+        <v>14754</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>225</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>150389</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>193</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>126195</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="7">
         <v>418</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>276584</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2460,8 +2863,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701C6E95-95C4-4ED4-BF63-6896724BA15B}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3718557A-C122-44F9-A0D5-C8ADED8244CB}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2477,7 +2880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2578,151 +2981,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7">
-        <v>7870</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>5889</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>13759</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7">
-        <v>66410</v>
+        <v>34212</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="7">
+        <v>65</v>
+      </c>
+      <c r="I5" s="7">
+        <v>43634</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" s="7">
         <v>115</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="7">
-        <v>97</v>
-      </c>
-      <c r="I5" s="7">
-        <v>64481</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M5" s="7">
-        <v>191</v>
-      </c>
       <c r="N5" s="7">
-        <v>130891</v>
+        <v>77846</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>4551</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>3397</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>7948</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,10 +3134,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="D7" s="7">
-        <v>74280</v>
+        <v>38763</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -2746,10 +3149,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="I7" s="7">
-        <v>70370</v>
+        <v>47031</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -2761,10 +3164,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="N7" s="7">
-        <v>144650</v>
+        <v>85794</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -2784,151 +3187,151 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>4831</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>2132</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>6963</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D9" s="7">
-        <v>63584</v>
+        <v>88059</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H9" s="7">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I9" s="7">
-        <v>54470</v>
+        <v>65455</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="M9" s="7">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="N9" s="7">
-        <v>118053</v>
+        <v>153514</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>7497</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>4624</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>12121</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,10 +3340,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="D11" s="7">
-        <v>68415</v>
+        <v>95556</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2952,10 +3355,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="I11" s="7">
-        <v>56602</v>
+        <v>70079</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2967,10 +3370,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="N11" s="7">
-        <v>125016</v>
+        <v>165635</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2984,157 +3387,157 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>2505</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>1218</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="M12" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>3723</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>57326</v>
+        <v>24686</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>26713</v>
+        <v>19622</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="N13" s="7">
-        <v>84039</v>
+        <v>44307</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1945</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>2554</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,10 +3546,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7">
-        <v>59831</v>
+        <v>26631</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -3158,10 +3561,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I15" s="7">
-        <v>27931</v>
+        <v>20231</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -3173,10 +3576,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="N15" s="7">
-        <v>87762</v>
+        <v>46861</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -3190,157 +3593,157 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>15206</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>9239</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>24445</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>264</v>
+        <v>60</v>
       </c>
       <c r="D17" s="7">
-        <v>187320</v>
+        <v>40362</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>145664</v>
+        <v>16953</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
-        <v>476</v>
+        <v>85</v>
       </c>
       <c r="N17" s="7">
-        <v>332984</v>
+        <v>57315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>1214</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>1823</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,55 +3752,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>62</v>
+      </c>
+      <c r="D19" s="7">
+        <v>41576</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>26</v>
+      </c>
+      <c r="I19" s="7">
+        <v>17562</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>88</v>
+      </c>
+      <c r="N19" s="7">
+        <v>59138</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>264</v>
+      </c>
+      <c r="D21" s="7">
+        <v>187320</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H21" s="7">
+        <v>212</v>
+      </c>
+      <c r="I21" s="7">
+        <v>145664</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" s="7">
+        <v>476</v>
+      </c>
+      <c r="N21" s="7">
+        <v>332984</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>23</v>
+      </c>
+      <c r="D22" s="7">
+        <v>15206</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H22" s="7">
+        <v>13</v>
+      </c>
+      <c r="I22" s="7">
+        <v>9239</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" s="7">
+        <v>36</v>
+      </c>
+      <c r="N22" s="7">
+        <v>24445</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>287</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>202526</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>225</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>154903</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="7">
         <v>512</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>357429</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3410,8 +4025,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C4FEEA-A0BE-49C9-BBE9-C8F10AE743C4}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64EC449-329C-494E-8992-05AE98861A98}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3427,7 +4042,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3528,151 +4143,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>5008</v>
+        <v>1743</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1331</v>
+        <v>2014</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>6339</v>
+        <v>3757</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>35524</v>
+        <v>17784</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="H5" s="7">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="I5" s="7">
-        <v>42085</v>
+        <v>23582</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="N5" s="7">
-        <v>77608</v>
+        <v>41366</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>1743</v>
+        <v>2918</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>111</v>
+        <v>229</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>604</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M6" s="7">
         <v>5</v>
       </c>
-      <c r="I6" s="7">
-        <v>3016</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M6" s="7">
-        <v>7</v>
-      </c>
       <c r="N6" s="7">
-        <v>4759</v>
+        <v>3522</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,10 +4296,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>42275</v>
+        <v>22445</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -3696,10 +4311,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="I7" s="7">
-        <v>46432</v>
+        <v>26199</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -3711,10 +4326,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="N7" s="7">
-        <v>88707</v>
+        <v>48644</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -3734,151 +4349,151 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2053</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>1934</v>
+        <v>1592</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>3987</v>
+        <v>1592</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D9" s="7">
-        <v>24577</v>
+        <v>32386</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="H9" s="7">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I9" s="7">
-        <v>35524</v>
+        <v>41032</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="M9" s="7">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="N9" s="7">
-        <v>60101</v>
+        <v>73418</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>678</v>
+        <v>4143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>589</v>
+        <v>727</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>1267</v>
+        <v>4870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,10 +4502,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7">
-        <v>27308</v>
+        <v>36529</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -3902,10 +4517,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I11" s="7">
-        <v>38047</v>
+        <v>43351</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3917,10 +4532,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="N11" s="7">
-        <v>65355</v>
+        <v>79880</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -3934,157 +4549,157 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>4335</v>
+        <v>678</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>232</v>
+        <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>3266</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="M12" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>7601</v>
+        <v>678</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>36793</v>
+        <v>25317</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>243</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>27579</v>
+        <v>24404</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="N13" s="7">
-        <v>64372</v>
+        <v>49721</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>644</v>
+        <v>3708</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>644</v>
+        <v>4435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,10 +4708,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7">
-        <v>41128</v>
+        <v>26722</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -4108,10 +4723,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>31489</v>
+        <v>28112</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4123,10 +4738,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="N15" s="7">
-        <v>72617</v>
+        <v>54834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -4140,157 +4755,157 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>11395</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>6531</v>
+        <v>644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>17927</v>
+        <v>644</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7">
-        <v>96894</v>
+        <v>21406</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="H17" s="7">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="I17" s="7">
-        <v>105187</v>
+        <v>16170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="M17" s="7">
-        <v>303</v>
+        <v>53</v>
       </c>
       <c r="N17" s="7">
-        <v>202081</v>
+        <v>37576</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>2421</v>
+        <v>3608</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>101</v>
+        <v>289</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1492</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M18" s="7">
         <v>7</v>
       </c>
-      <c r="I18" s="7">
-        <v>4250</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="M18" s="7">
-        <v>10</v>
-      </c>
       <c r="N18" s="7">
-        <v>6671</v>
+        <v>5100</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,55 +4914,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>34</v>
+      </c>
+      <c r="D19" s="7">
+        <v>25014</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>27</v>
+      </c>
+      <c r="I19" s="7">
+        <v>18306</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>61</v>
+      </c>
+      <c r="N19" s="7">
+        <v>43321</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2421</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H20" s="7">
+        <v>7</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4250</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M20" s="7">
+        <v>10</v>
+      </c>
+      <c r="N20" s="7">
+        <v>6671</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>139</v>
+      </c>
+      <c r="D21" s="7">
+        <v>96894</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H21" s="7">
+        <v>164</v>
+      </c>
+      <c r="I21" s="7">
+        <v>105187</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M21" s="7">
+        <v>303</v>
+      </c>
+      <c r="N21" s="7">
+        <v>202081</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7">
+        <v>11395</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H22" s="7">
+        <v>10</v>
+      </c>
+      <c r="I22" s="7">
+        <v>6531</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="M22" s="7">
+        <v>26</v>
+      </c>
+      <c r="N22" s="7">
+        <v>17927</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>158</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>110711</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>181</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>115968</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="7">
         <v>339</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>226679</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4360,8 +5187,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2385FD71-3863-46DB-A64E-9FA546D73CB4}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815A0E39-F03C-4569-B40E-563E2E7E4B4F}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4377,7 +5204,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4478,151 +5305,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>797</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1320</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>2117</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>18259</v>
+        <v>10981</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>287</v>
+        <v>82</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>288</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>16116</v>
+        <v>13491</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>291</v>
+        <v>66</v>
       </c>
       <c r="M5" s="7">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="N5" s="7">
-        <v>34375</v>
+        <v>24472</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>696</v>
+        <v>797</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>491</v>
+        <v>822</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>1187</v>
+        <v>1619</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>335</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,10 +5458,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>19752</v>
+        <v>11778</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -4646,10 +5473,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>17927</v>
+        <v>14313</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -4661,10 +5488,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="N7" s="7">
-        <v>37679</v>
+        <v>26091</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -4687,148 +5514,148 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1667</v>
+        <v>1653</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>3571</v>
+        <v>491</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>5238</v>
+        <v>2144</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="7">
-        <v>30416</v>
+        <v>23600</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="H9" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I9" s="7">
-        <v>23819</v>
+        <v>17566</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="M9" s="7">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="N9" s="7">
-        <v>54235</v>
+        <v>41166</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>957</v>
+        <v>1667</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>102</v>
+        <v>353</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>833</v>
+        <v>1771</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>1789</v>
+        <v>3437</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>31</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,10 +5664,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>33039</v>
+        <v>26919</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -4852,10 +5679,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I11" s="7">
-        <v>28223</v>
+        <v>19828</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4867,10 +5694,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="N11" s="7">
-        <v>61262</v>
+        <v>46747</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -4884,157 +5711,157 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>5310</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>321</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>1237</v>
+        <v>833</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>55</v>
+        <v>362</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>6547</v>
+        <v>833</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>326</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>45831</v>
+        <v>28667</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>330</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>43982</v>
+        <v>19280</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="N13" s="7">
-        <v>89813</v>
+        <v>47948</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>334</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1677</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>2903</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>4580</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,10 +5870,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7">
-        <v>51141</v>
+        <v>30344</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -5058,10 +5885,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="I15" s="7">
-        <v>45219</v>
+        <v>23016</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -5073,10 +5900,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="N15" s="7">
-        <v>96360</v>
+        <v>53360</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -5090,157 +5917,157 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>7774</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>6128</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>13902</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7">
-        <v>94505</v>
+        <v>31258</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="I17" s="7">
-        <v>83917</v>
+        <v>33580</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
-        <v>252</v>
+        <v>84</v>
       </c>
       <c r="N17" s="7">
-        <v>178423</v>
+        <v>64837</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>1653</v>
+        <v>3633</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>390</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>1324</v>
+        <v>632</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>2976</v>
+        <v>4266</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>44</v>
+        <v>393</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,55 +6076,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>42</v>
+      </c>
+      <c r="D19" s="7">
+        <v>34891</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>47</v>
+      </c>
+      <c r="I19" s="7">
+        <v>34212</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>89</v>
+      </c>
+      <c r="N19" s="7">
+        <v>69103</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1653</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1324</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="M20" s="7">
+        <v>4</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2976</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>126</v>
+      </c>
+      <c r="D21" s="7">
+        <v>94505</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H21" s="7">
+        <v>126</v>
+      </c>
+      <c r="I21" s="7">
+        <v>83917</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="M21" s="7">
+        <v>252</v>
+      </c>
+      <c r="N21" s="7">
+        <v>178423</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7">
+        <v>7774</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H22" s="7">
+        <v>10</v>
+      </c>
+      <c r="I22" s="7">
+        <v>6128</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="M22" s="7">
+        <v>20</v>
+      </c>
+      <c r="N22" s="7">
+        <v>13902</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>138</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>103932</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>138</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>91369</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="7">
         <v>276</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>195301</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP22C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22C-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17BC75A4-2AA5-4CAA-A8CB-3651EEAC37F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{697A9C1C-2513-46FD-9324-337052DE216F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70D2B243-3BE8-4D67-904D-4FD08BEB4FE7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6900D4E4-C4CD-40A8-A9D5-502E719DAFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="416">
   <si>
     <t>Menores según del porqué se decidió ir al servicio de urgencias en 2007 (Tasa respuesta: 19,87%)</t>
   </si>
@@ -95,838 +95,847 @@
     <t>90,04%</t>
   </si>
   <si>
-    <t>79,08%</t>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>Se lo mandó el médico</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>96,41%</t>
   </si>
   <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>Se lo mandó el médico</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2016 (Tasa respuesta: 15,95%)</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
   </si>
   <si>
     <t>94,74%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2015 (Tasa respuesta: 15,95%)</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>83,91%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
   </si>
   <si>
     <t>8,09%</t>
   </si>
   <si>
-    <t>15,9%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>17,83%</t>
+    <t>17,51%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>7,75%</t>
+    <t>6,37%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>88,33%</t>
   </si>
   <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>24,55%</t>
+    <t>26,51%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
   </si>
   <si>
     <t>2,19%</t>
@@ -935,73 +944,70 @@
     <t>0,61%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>5,28%</t>
   </si>
   <si>
     <t>87,52%</t>
   </si>
   <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>90,7%</t>
   </si>
   <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>89,15%</t>
   </si>
   <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>15,81%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>9,95%</t>
+    <t>9,82%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
   <si>
     <t>Menores según del porqué se decidió ir al servicio de urgencias en 2023 (Tasa respuesta: 14,37%)</t>
@@ -1016,52 +1022,49 @@
     <t>93,23%</t>
   </si>
   <si>
+    <t>74,06%</t>
+  </si>
+  <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>75,7%</t>
+    <t>76,78%</t>
   </si>
   <si>
     <t>93,79%</t>
   </si>
   <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>82,0%</t>
   </si>
   <si>
     <t>6,77%</t>
   </si>
   <si>
-    <t>26,04%</t>
+    <t>25,94%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>24,3%</t>
+    <t>23,22%</t>
   </si>
   <si>
     <t>6,21%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>18,0%</t>
   </si>
   <si>
     <t>6,14%</t>
   </si>
   <si>
-    <t>20,28%</t>
+    <t>19,49%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>11,8%</t>
+    <t>11,84%</t>
   </si>
   <si>
     <t>4,59%</t>
@@ -1070,58 +1073,52 @@
     <t>1,06%</t>
   </si>
   <si>
-    <t>12,54%</t>
+    <t>12,99%</t>
   </si>
   <si>
     <t>87,67%</t>
   </si>
   <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>73,12%</t>
   </si>
   <si>
     <t>88,59%</t>
   </si>
   <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>88,06%</t>
   </si>
   <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>77,63%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>20,9%</t>
+    <t>19,59%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
   </si>
   <si>
     <t>5,16%</t>
@@ -1130,52 +1127,52 @@
     <t>3,62%</t>
   </si>
   <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
   <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>82,01%</t>
+    <t>82,58%</t>
   </si>
   <si>
     <t>83,77%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>17,99%</t>
+    <t>17,42%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
+    <t>27,85%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>17,3%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -1187,52 +1184,49 @@
     <t>89,59%</t>
   </si>
   <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>74,25%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>90,05%</t>
+    <t>91,37%</t>
   </si>
   <si>
     <t>93,83%</t>
   </si>
   <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>10,41%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
+    <t>8,63%</t>
+  </si>
+  <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
+    <t>13,32%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>5,41%</t>
+    <t>5,02%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -1241,55 +1235,58 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>3,77%</t>
+    <t>3,93%</t>
   </si>
   <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
   </si>
   <si>
     <t>91,84%</t>
   </si>
   <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>85,44%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>87,06%</t>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>12,65%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13395139-91E0-41C4-9079-4AE8816BA5FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C038A4C-4A5F-4E8A-85B4-B10EE346296C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2288,13 +2285,13 @@
         <v>18065</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -2303,13 +2300,13 @@
         <v>18573</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -2318,13 +2315,13 @@
         <v>36639</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,13 +2336,13 @@
         <v>673</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2354,13 +2351,13 @@
         <v>576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2375,7 +2372,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,7 +2428,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2443,13 +2440,13 @@
         <v>1358</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2464,7 +2461,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2473,13 +2470,13 @@
         <v>1358</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2491,13 @@
         <v>29263</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -2509,13 +2506,13 @@
         <v>24292</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -2524,13 +2521,13 @@
         <v>53554</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2542,13 @@
         <v>2644</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2560,13 +2557,13 @@
         <v>1195</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -2575,13 +2572,13 @@
         <v>3839</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,7 +2652,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2664,13 +2661,13 @@
         <v>778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2679,13 +2676,13 @@
         <v>2137</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2697,13 @@
         <v>140545</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>182</v>
@@ -2715,13 +2712,13 @@
         <v>119149</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>392</v>
@@ -2730,13 +2727,13 @@
         <v>259694</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2748,13 @@
         <v>8486</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -2766,13 +2763,13 @@
         <v>6268</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -2781,13 +2778,13 @@
         <v>14754</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2840,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2863,7 +2860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3718557A-C122-44F9-A0D5-C8ADED8244CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2256A38D-D594-4B72-BCE8-E253B44E72E9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2880,7 +2877,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3008,7 +3005,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3023,7 +3020,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3035,13 @@
         <v>34212</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>65</v>
@@ -3053,13 +3050,13 @@
         <v>43634</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>115</v>
@@ -3068,13 +3065,13 @@
         <v>77846</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3086,13 @@
         <v>4551</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -3104,13 +3101,13 @@
         <v>3397</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -3119,13 +3116,13 @@
         <v>7948</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,7 +3196,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3214,7 +3211,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3229,7 +3226,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,13 +3241,13 @@
         <v>88059</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H9" s="7">
         <v>94</v>
@@ -3259,13 +3256,13 @@
         <v>65455</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="M9" s="7">
         <v>214</v>
@@ -3274,13 +3271,13 @@
         <v>153514</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3292,13 @@
         <v>7497</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3310,13 +3307,13 @@
         <v>4624</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -3325,13 +3322,13 @@
         <v>12121</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,7 +3402,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3435,7 +3432,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3447,13 @@
         <v>24686</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3465,13 +3462,13 @@
         <v>19622</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -3480,13 +3477,13 @@
         <v>44307</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3498,13 @@
         <v>1945</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3516,13 +3513,13 @@
         <v>609</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -3531,13 +3528,13 @@
         <v>2554</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,7 +3590,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3611,7 +3608,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3626,7 +3623,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3641,7 +3638,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3653,13 @@
         <v>40362</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -3671,13 +3668,13 @@
         <v>16953</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -3686,13 +3683,13 @@
         <v>57315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3704,13 @@
         <v>1214</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -3722,13 +3719,13 @@
         <v>609</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -3737,13 +3734,13 @@
         <v>1823</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,7 +3829,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3847,7 +3844,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3859,13 @@
         <v>187320</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H21" s="7">
         <v>212</v>
@@ -3877,13 +3874,13 @@
         <v>145664</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M21" s="7">
         <v>476</v>
@@ -3892,13 +3889,13 @@
         <v>332984</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3910,13 @@
         <v>15206</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -3928,13 +3925,13 @@
         <v>9239</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -3943,13 +3940,13 @@
         <v>24445</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,7 +4002,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4025,7 +4022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64EC449-329C-494E-8992-05AE98861A98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70934D8-11FF-485B-8655-090641711DA0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4042,7 +4039,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4149,13 +4146,13 @@
         <v>1743</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4164,13 +4161,13 @@
         <v>2014</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -4179,13 +4176,13 @@
         <v>3757</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4197,13 @@
         <v>17784</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H5" s="7">
         <v>38</v>
@@ -4215,13 +4212,13 @@
         <v>23582</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -4230,13 +4227,13 @@
         <v>41366</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,13 +4248,13 @@
         <v>2918</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4266,13 +4263,13 @@
         <v>604</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4281,13 +4278,13 @@
         <v>3522</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,7 +4358,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4370,13 +4367,13 @@
         <v>1592</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -4385,13 +4382,13 @@
         <v>1592</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,13 +4403,13 @@
         <v>32386</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H9" s="7">
         <v>66</v>
@@ -4421,13 +4418,13 @@
         <v>41032</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M9" s="7">
         <v>114</v>
@@ -4436,13 +4433,13 @@
         <v>73418</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,13 +4454,13 @@
         <v>4143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>117</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4478,7 +4475,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -4487,13 +4484,13 @@
         <v>4870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4558,13 @@
         <v>678</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4582,7 +4579,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4591,13 +4588,13 @@
         <v>678</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4609,13 @@
         <v>25317</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -4627,13 +4624,13 @@
         <v>24404</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -4642,13 +4639,13 @@
         <v>49721</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4660,13 @@
         <v>727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4678,13 +4675,13 @@
         <v>3708</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4693,13 +4690,13 @@
         <v>4435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>118</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,7 +4752,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4773,7 +4770,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4782,13 +4779,13 @@
         <v>644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4797,13 +4794,13 @@
         <v>644</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4815,13 @@
         <v>21406</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -4833,13 +4830,13 @@
         <v>16170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -4848,13 +4845,13 @@
         <v>37576</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,13 +4866,13 @@
         <v>3608</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -4884,13 +4881,13 @@
         <v>1492</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -4899,13 +4896,13 @@
         <v>5100</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4970,13 @@
         <v>2421</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -4988,13 +4985,13 @@
         <v>4250</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>299</v>
+        <v>28</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -5003,13 +5000,13 @@
         <v>6671</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5021,13 @@
         <v>96894</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H21" s="7">
         <v>164</v>
@@ -5039,13 +5036,13 @@
         <v>105187</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M21" s="7">
         <v>303</v>
@@ -5054,13 +5051,13 @@
         <v>202081</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5072,13 @@
         <v>11395</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -5090,13 +5087,13 @@
         <v>6531</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -5105,13 +5102,13 @@
         <v>17927</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,7 +5164,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5187,7 +5184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815A0E39-F03C-4569-B40E-563E2E7E4B4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4E3AB1-B19E-437F-8FB6-5E437875E277}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5204,7 +5201,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5317,7 +5314,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5347,7 +5344,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5359,13 @@
         <v>10981</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -5377,13 +5374,13 @@
         <v>13491</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -5392,13 +5389,13 @@
         <v>24472</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,13 +5410,13 @@
         <v>797</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5428,13 +5425,13 @@
         <v>822</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -5443,13 +5440,13 @@
         <v>1619</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>335</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5514,13 @@
         <v>1653</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5532,13 +5529,13 @@
         <v>491</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -5547,13 +5544,13 @@
         <v>2144</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5565,13 @@
         <v>23600</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>346</v>
+        <v>187</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -5604,7 +5601,7 @@
         <v>351</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>352</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5616,13 @@
         <v>1667</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5634,13 +5631,13 @@
         <v>1771</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5649,13 +5646,13 @@
         <v>3437</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,7 +5726,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5738,13 +5735,13 @@
         <v>833</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -5759,7 +5756,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,13 +5771,13 @@
         <v>28667</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>366</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -5789,13 +5786,13 @@
         <v>19280</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -5804,13 +5801,13 @@
         <v>47948</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5822,13 @@
         <v>1677</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -5840,13 +5837,13 @@
         <v>2903</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -5855,13 +5852,13 @@
         <v>4580</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,7 +5914,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5935,7 +5932,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5950,7 +5947,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5965,7 +5962,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,13 +5977,13 @@
         <v>31258</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>382</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -5995,13 +5992,13 @@
         <v>33580</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -6010,13 +6007,13 @@
         <v>64837</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,13 +6028,13 @@
         <v>3633</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -6046,13 +6043,13 @@
         <v>632</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -6061,13 +6058,13 @@
         <v>4266</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,13 +6132,13 @@
         <v>1653</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -6150,13 +6147,13 @@
         <v>1324</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -6165,13 +6162,13 @@
         <v>2976</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,13 +6183,13 @@
         <v>94505</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H21" s="7">
         <v>126</v>
@@ -6201,13 +6198,13 @@
         <v>83917</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>406</v>
+        <v>156</v>
       </c>
       <c r="M21" s="7">
         <v>252</v>
@@ -6216,13 +6213,13 @@
         <v>178423</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,13 +6234,13 @@
         <v>7774</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -6252,13 +6249,13 @@
         <v>6128</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -6267,13 +6264,13 @@
         <v>13902</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,7 +6326,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP22C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{697A9C1C-2513-46FD-9324-337052DE216F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{124C73A8-E78A-4932-A84F-C6659D9F8548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6900D4E4-C4CD-40A8-A9D5-502E719DAFFC}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{58EDFA22-E622-4762-ADAA-23CB9FAFC797}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="418">
   <si>
     <t>Menores según del porqué se decidió ir al servicio de urgencias en 2007 (Tasa respuesta: 19,87%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,1213 +80,1219 @@
     <t>0%</t>
   </si>
   <si>
+    <t>3,75%</t>
+  </si>
+  <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
     <t>1,94%</t>
   </si>
   <si>
     <t>Usted sus familiares u otras personas lo consideraron necesa</t>
   </si>
   <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
     <t>90,04%</t>
   </si>
   <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>Se lo mandó el médico</t>
   </si>
   <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
     <t>9,96%</t>
   </si>
   <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2016 (Tasa respuesta: 15,95%)</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2023 (Tasa respuesta: 14,37%)</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>91,64%</t>
   </si>
   <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2016 (Tasa respuesta: 15,95%)</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2023 (Tasa respuesta: 14,37%)</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C038A4C-4A5F-4E8A-85B4-B10EE346296C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EB3554-76A8-4F45-B375-64349448F401}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1867,10 +1873,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>28910</v>
+        <v>29780</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1882,10 +1888,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>29780</v>
+        <v>28910</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -1918,10 +1924,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>3199</v>
+        <v>1876</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -1933,10 +1939,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>1876</v>
+        <v>3199</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1969,25 +1975,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>50</v>
+      </c>
+      <c r="D7" s="7">
+        <v>31656</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>48</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>32109</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>50</v>
-      </c>
-      <c r="I7" s="7">
-        <v>31656</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -2022,31 +2028,31 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>778</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>40</v>
@@ -2073,10 +2079,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7">
-        <v>64308</v>
+        <v>46503</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>43</v>
@@ -2088,10 +2094,10 @@
         <v>45</v>
       </c>
       <c r="H9" s="7">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="I9" s="7">
-        <v>46503</v>
+        <v>64308</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>46</v>
@@ -2124,10 +2130,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>1970</v>
+        <v>2620</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>52</v>
@@ -2139,10 +2145,10 @@
         <v>54</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>2620</v>
+        <v>1970</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>55</v>
@@ -2175,25 +2181,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>76</v>
+      </c>
+      <c r="D11" s="7">
+        <v>49902</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>99</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>66278</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>76</v>
-      </c>
-      <c r="I11" s="7">
-        <v>49902</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2279,10 +2285,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>18065</v>
+        <v>18573</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>65</v>
@@ -2294,10 +2300,10 @@
         <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>18573</v>
+        <v>18065</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>68</v>
@@ -2333,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>673</v>
+        <v>576</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>72</v>
@@ -2348,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>576</v>
+        <v>673</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>74</v>
@@ -2381,25 +2387,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7">
+        <v>19149</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>28</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>18738</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>29</v>
-      </c>
-      <c r="I15" s="7">
-        <v>19149</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2434,31 +2440,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1358</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>80</v>
@@ -2485,10 +2491,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>29263</v>
+        <v>24292</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>83</v>
@@ -2497,22 +2503,22 @@
         <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="7">
+        <v>44</v>
+      </c>
+      <c r="I17" s="7">
+        <v>29263</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="7">
-        <v>36</v>
-      </c>
-      <c r="I17" s="7">
-        <v>24292</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -2521,13 +2527,13 @@
         <v>53554</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,34 +2542,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1195</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>2644</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1195</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -2572,13 +2578,13 @@
         <v>3839</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,25 +2593,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>38</v>
+      </c>
+      <c r="D19" s="7">
+        <v>25487</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>50</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>33265</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>38</v>
-      </c>
-      <c r="I19" s="7">
-        <v>25487</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -2640,13 +2646,13 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>1358</v>
+        <v>778</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
@@ -2655,19 +2661,19 @@
         <v>99</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>778</v>
+        <v>1358</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2676,13 +2682,13 @@
         <v>2137</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,34 +2697,34 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>182</v>
+      </c>
+      <c r="D21" s="7">
+        <v>119149</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="7">
         <v>210</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>140545</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="7">
-        <v>182</v>
-      </c>
-      <c r="I21" s="7">
-        <v>119149</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>392</v>
@@ -2727,13 +2733,13 @@
         <v>259694</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,34 +2748,34 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6268</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="7">
         <v>13</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>8486</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="7">
-        <v>10</v>
-      </c>
-      <c r="I22" s="7">
-        <v>6268</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -2778,13 +2784,13 @@
         <v>14754</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,25 +2799,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>193</v>
+      </c>
+      <c r="D23" s="7">
+        <v>126195</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>225</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>150389</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>193</v>
-      </c>
-      <c r="I23" s="7">
-        <v>126195</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -2840,7 +2846,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2860,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2256A38D-D594-4B72-BCE8-E253B44E72E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99332A09-2BAD-4601-91C5-79FFB0550EBE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2877,7 +2883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2990,7 +2996,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3005,7 +3011,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3020,7 +3026,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,34 +3035,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>65</v>
+      </c>
+      <c r="D5" s="7">
+        <v>43634</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="7">
         <v>50</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>34212</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="7">
-        <v>65</v>
-      </c>
-      <c r="I5" s="7">
-        <v>43634</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>115</v>
@@ -3065,13 +3071,13 @@
         <v>77846</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,34 +3086,34 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3397</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="7">
         <v>7</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>4551</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3397</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -3116,13 +3122,13 @@
         <v>7948</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,25 +3137,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>70</v>
+      </c>
+      <c r="D7" s="7">
+        <v>47031</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>57</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>38763</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>70</v>
-      </c>
-      <c r="I7" s="7">
-        <v>47031</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -3196,7 +3202,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3211,7 +3217,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3226,7 +3232,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,34 +3241,34 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
+        <v>94</v>
+      </c>
+      <c r="D9" s="7">
+        <v>65455</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="7">
         <v>120</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>88059</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="H9" s="7">
-        <v>94</v>
-      </c>
-      <c r="I9" s="7">
-        <v>65455</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M9" s="7">
         <v>214</v>
@@ -3271,13 +3277,13 @@
         <v>153514</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,34 +3292,34 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
+        <v>4624</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="7">
+        <v>11</v>
+      </c>
+      <c r="I10" s="7">
         <v>7497</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4624</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -3322,13 +3328,13 @@
         <v>12121</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,25 +3343,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>100</v>
+      </c>
+      <c r="D11" s="7">
+        <v>70079</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>131</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>95556</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>100</v>
-      </c>
-      <c r="I11" s="7">
-        <v>70079</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3402,7 +3408,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3417,7 +3423,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3432,7 +3438,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,34 +3447,34 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7">
+        <v>19622</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="7">
         <v>34</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>24686</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H13" s="7">
-        <v>28</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19622</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -3477,13 +3483,13 @@
         <v>44307</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,34 +3498,34 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>609</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>1945</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>609</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -3528,13 +3534,13 @@
         <v>2554</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,25 +3549,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7">
+        <v>20231</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>37</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>26631</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>29</v>
-      </c>
-      <c r="I15" s="7">
-        <v>20231</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -3608,7 +3614,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3623,7 +3629,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3638,7 +3644,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,31 +3653,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>40362</v>
+        <v>16953</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I17" s="7">
-        <v>16953</v>
+        <v>40362</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>67</v>
@@ -3683,13 +3689,13 @@
         <v>57315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,34 +3704,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>609</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>1214</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>609</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -3734,13 +3740,13 @@
         <v>1823</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,25 +3755,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>26</v>
+      </c>
+      <c r="D19" s="7">
+        <v>17562</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>62</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>41576</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>26</v>
-      </c>
-      <c r="I19" s="7">
-        <v>17562</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -3814,7 +3820,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3829,7 +3835,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3844,7 +3850,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,34 +3859,34 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>212</v>
+      </c>
+      <c r="D21" s="7">
+        <v>145664</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" s="7">
         <v>264</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>187320</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="J21" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H21" s="7">
-        <v>212</v>
-      </c>
-      <c r="I21" s="7">
-        <v>145664</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M21" s="7">
         <v>476</v>
@@ -3889,13 +3895,13 @@
         <v>332984</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,34 +3910,34 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
+        <v>13</v>
+      </c>
+      <c r="D22" s="7">
+        <v>9239</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="7">
         <v>23</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>15206</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H22" s="7">
-        <v>13</v>
-      </c>
-      <c r="I22" s="7">
-        <v>9239</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -3940,13 +3946,13 @@
         <v>24445</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,25 +3961,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>225</v>
+      </c>
+      <c r="D23" s="7">
+        <v>154903</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>287</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>202526</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>225</v>
-      </c>
-      <c r="I23" s="7">
-        <v>154903</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -4002,7 +4008,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4022,7 +4028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70934D8-11FF-485B-8655-090641711DA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F78F7F-4F93-4B5E-A3CD-EA0D0F723E65}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4039,7 +4045,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4140,34 +4146,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2014</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1743</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2014</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -4176,13 +4182,13 @@
         <v>3757</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,34 +4197,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>38</v>
+      </c>
+      <c r="D5" s="7">
+        <v>23582</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="7">
         <v>27</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>17784</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H5" s="7">
-        <v>38</v>
-      </c>
-      <c r="I5" s="7">
-        <v>23582</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -4227,13 +4233,13 @@
         <v>41366</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,34 +4248,34 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>604</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2918</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>604</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4278,13 +4284,13 @@
         <v>3522</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,25 +4299,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7">
+        <v>26199</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>33</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>22445</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>42</v>
-      </c>
-      <c r="I7" s="7">
-        <v>26199</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -4346,34 +4352,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1592</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1592</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -4382,13 +4388,13 @@
         <v>1592</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>92</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,34 +4403,34 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>41032</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H9" s="7">
         <v>48</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>32386</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H9" s="7">
-        <v>66</v>
-      </c>
-      <c r="I9" s="7">
-        <v>41032</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M9" s="7">
         <v>114</v>
@@ -4433,13 +4439,13 @@
         <v>73418</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,34 +4454,34 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>727</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4143</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>727</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -4484,13 +4490,13 @@
         <v>4870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,25 +4505,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>70</v>
+      </c>
+      <c r="D11" s="7">
+        <v>43351</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>54</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>36529</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>70</v>
-      </c>
-      <c r="I11" s="7">
-        <v>43351</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4552,34 +4558,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4588,13 +4594,13 @@
         <v>678</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,34 +4609,34 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7">
+        <v>24404</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="7">
         <v>35</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>25317</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="H13" s="7">
-        <v>36</v>
-      </c>
-      <c r="I13" s="7">
-        <v>24404</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -4639,13 +4645,13 @@
         <v>49721</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,34 +4660,34 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3708</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>727</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="7">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3708</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4690,13 +4696,13 @@
         <v>4435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,25 +4711,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>42</v>
+      </c>
+      <c r="D15" s="7">
+        <v>28112</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>37</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>26722</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>42</v>
-      </c>
-      <c r="I15" s="7">
-        <v>28112</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4758,34 +4764,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>644</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4794,13 +4800,13 @@
         <v>644</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,34 +4815,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>24</v>
+      </c>
+      <c r="D17" s="7">
+        <v>16170</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H17" s="7">
         <v>29</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>21406</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H17" s="7">
-        <v>24</v>
-      </c>
-      <c r="I17" s="7">
-        <v>16170</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -4845,13 +4851,13 @@
         <v>37576</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,34 +4866,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1492</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H18" s="7">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>3608</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1492</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -4896,13 +4902,13 @@
         <v>5100</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,25 +4917,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>27</v>
+      </c>
+      <c r="D19" s="7">
+        <v>18306</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>34</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>25014</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>27</v>
-      </c>
-      <c r="I19" s="7">
-        <v>18306</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -4964,34 +4970,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4250</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H20" s="7">
         <v>3</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>2421</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H20" s="7">
-        <v>7</v>
-      </c>
-      <c r="I20" s="7">
-        <v>4250</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>28</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>302</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -5000,13 +5006,13 @@
         <v>6671</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,34 +5021,34 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>164</v>
+      </c>
+      <c r="D21" s="7">
+        <v>105187</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H21" s="7">
         <v>139</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>96894</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H21" s="7">
-        <v>164</v>
-      </c>
-      <c r="I21" s="7">
-        <v>105187</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M21" s="7">
         <v>303</v>
@@ -5051,13 +5057,13 @@
         <v>202081</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,34 +5072,34 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6531</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H22" s="7">
         <v>16</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>11395</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H22" s="7">
-        <v>10</v>
-      </c>
-      <c r="I22" s="7">
-        <v>6531</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>97</v>
+        <v>321</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -5102,13 +5108,13 @@
         <v>17927</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,25 +5123,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>181</v>
+      </c>
+      <c r="D23" s="7">
+        <v>115968</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>158</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>110711</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>181</v>
-      </c>
-      <c r="I23" s="7">
-        <v>115968</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -5164,7 +5170,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5184,7 +5190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4E3AB1-B19E-437F-8FB6-5E437875E277}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AA1466-C2B8-41ED-9041-4128DA058496}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5201,7 +5207,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5314,7 +5320,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>63</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5329,7 +5335,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>62</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5344,7 +5350,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,31 +5359,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>10981</v>
+        <v>13809</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>104</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>13491</v>
+        <v>12028</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>67</v>
@@ -5386,16 +5392,16 @@
         <v>46</v>
       </c>
       <c r="N5" s="7">
-        <v>24472</v>
+        <v>25837</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,49 +5410,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>815</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
-        <v>797</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
       <c r="I6" s="7">
-        <v>822</v>
+        <v>791</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>1619</v>
+        <v>1606</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,25 +5461,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14624</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>21</v>
       </c>
-      <c r="D7" s="7">
-        <v>11778</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>28</v>
-      </c>
       <c r="I7" s="7">
-        <v>14313</v>
+        <v>12819</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -5488,7 +5494,7 @@
         <v>49</v>
       </c>
       <c r="N7" s="7">
-        <v>26091</v>
+        <v>27443</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -5508,49 +5514,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>491</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
-        <v>1653</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
       <c r="I8" s="7">
-        <v>491</v>
+        <v>1876</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>2144</v>
+        <v>2368</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,10 +5565,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7">
-        <v>23600</v>
+        <v>18671</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>345</v>
@@ -5571,37 +5577,37 @@
         <v>346</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>187</v>
+        <v>347</v>
       </c>
       <c r="H9" s="7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I9" s="7">
-        <v>17566</v>
+        <v>25540</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M9" s="7">
         <v>60</v>
       </c>
       <c r="N9" s="7">
-        <v>41166</v>
+        <v>44211</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>204</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,49 +5616,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1798</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
-        <v>1667</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
       <c r="I10" s="7">
-        <v>1771</v>
+        <v>1664</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>355</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>3437</v>
+        <v>3462</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,25 +5667,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7">
+        <v>20961</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>39</v>
       </c>
-      <c r="D11" s="7">
-        <v>26919</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>30</v>
-      </c>
       <c r="I11" s="7">
-        <v>19828</v>
+        <v>29080</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -5694,7 +5700,7 @@
         <v>69</v>
       </c>
       <c r="N11" s="7">
-        <v>46747</v>
+        <v>50041</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -5714,49 +5720,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>833</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>39</v>
+        <v>364</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,49 +5771,49 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7">
+        <v>19572</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H13" s="7">
         <v>34</v>
       </c>
-      <c r="D13" s="7">
-        <v>28667</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>30655</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="H13" s="7">
-        <v>28</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19280</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
       </c>
       <c r="N13" s="7">
-        <v>47948</v>
+        <v>50227</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,49 +5822,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2998</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
-        <v>1677</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
       <c r="I14" s="7">
-        <v>2903</v>
+        <v>1928</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>4580</v>
+        <v>4926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,10 +5873,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7">
-        <v>30344</v>
+        <v>23390</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -5882,10 +5888,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I15" s="7">
-        <v>23016</v>
+        <v>32583</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -5900,7 +5906,7 @@
         <v>69</v>
       </c>
       <c r="N15" s="7">
-        <v>53360</v>
+        <v>55972</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -5932,7 +5938,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>261</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5947,7 +5953,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>378</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5962,7 +5968,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,49 +5977,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>46</v>
+      </c>
+      <c r="D17" s="7">
+        <v>36802</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="7">
         <v>38</v>
       </c>
-      <c r="D17" s="7">
-        <v>31258</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H17" s="7">
-        <v>46</v>
-      </c>
       <c r="I17" s="7">
-        <v>33580</v>
+        <v>33463</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>385</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
       </c>
       <c r="N17" s="7">
-        <v>64837</v>
+        <v>70264</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,49 +6028,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>622</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
-        <v>3633</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
       <c r="I18" s="7">
-        <v>632</v>
+        <v>3576</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>392</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>4266</v>
+        <v>4198</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>392</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,25 +6079,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>47</v>
+      </c>
+      <c r="D19" s="7">
+        <v>37424</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>42</v>
       </c>
-      <c r="D19" s="7">
-        <v>34891</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>47</v>
-      </c>
       <c r="I19" s="7">
-        <v>34212</v>
+        <v>37039</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -6106,7 +6112,7 @@
         <v>89</v>
       </c>
       <c r="N19" s="7">
-        <v>69103</v>
+        <v>74462</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -6129,46 +6135,46 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1653</v>
+        <v>1311</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>1324</v>
+        <v>1876</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>2976</v>
+        <v>3187</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,46 +6186,46 @@
         <v>126</v>
       </c>
       <c r="D21" s="7">
-        <v>94505</v>
+        <v>88853</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>399</v>
+        <v>317</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H21" s="7">
         <v>126</v>
       </c>
       <c r="I21" s="7">
-        <v>83917</v>
+        <v>101687</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>156</v>
+        <v>405</v>
       </c>
       <c r="M21" s="7">
         <v>252</v>
       </c>
       <c r="N21" s="7">
-        <v>178423</v>
+        <v>190540</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,46 +6237,46 @@
         <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>7774</v>
+        <v>6234</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>6128</v>
+        <v>7958</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
       </c>
       <c r="N22" s="7">
-        <v>13902</v>
+        <v>14192</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,7 +6288,7 @@
         <v>138</v>
       </c>
       <c r="D23" s="7">
-        <v>103932</v>
+        <v>96398</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -6297,7 +6303,7 @@
         <v>138</v>
       </c>
       <c r="I23" s="7">
-        <v>91369</v>
+        <v>111522</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -6312,7 +6318,7 @@
         <v>276</v>
       </c>
       <c r="N23" s="7">
-        <v>195301</v>
+        <v>207919</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -6326,7 +6332,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
